--- a/gd/村落&家园系统/村落&家园系统.xlsx
+++ b/gd/村落&家园系统/村落&家园系统.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="227">
   <si>
     <t>场景组成</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -903,6 +903,22 @@
   </si>
   <si>
     <t>村落&amp;家园系统</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务追踪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示在界面右侧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示任务活动的进行状况，具体见任务系统设计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充任务追踪界面</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4263,8 +4279,8 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
@@ -4279,8 +4295,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6515100" y="1381125"/>
-          <a:ext cx="313200" cy="2400299"/>
+          <a:off x="6515100" y="2781300"/>
+          <a:ext cx="313200" cy="1000124"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5188,6 +5204,69 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="矩形 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5781675" y="1304925"/>
+          <a:ext cx="1047750" cy="1438275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>任务追踪</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5481,7 +5560,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -5673,7 +5752,9 @@
       <c r="E12" s="10"/>
       <c r="F12" s="7"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+      <c r="H12" s="6" t="s">
+        <v>226</v>
+      </c>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="11"/>
@@ -5726,8 +5807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5746,7 +5827,7 @@
   <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P49" sqref="P49"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5990,7 +6071,7 @@
   <dimension ref="A1:M192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O112" sqref="O112"/>
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7013,10 +7094,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7124,14 +7205,29 @@
         <v>138</v>
       </c>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>140</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B53" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C54" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C55" s="1" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/gd/村落&家园系统/村落&家园系统.xlsx
+++ b/gd/村落&家园系统/村落&家园系统.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,24 @@
     <sheet name="基础逻辑" sheetId="3" r:id="rId3"/>
     <sheet name="角色&amp;NPC相关" sheetId="4" r:id="rId4"/>
     <sheet name="UI逻辑" sheetId="5" r:id="rId5"/>
+    <sheet name="设计备忘" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <definedNames>
+    <definedName name="点击松开后且点击时间小于1s则判定为移动操作">'角色&amp;NPC相关'!$F$40</definedName>
+    <definedName name="动作层级关系">'角色&amp;NPC相关'!$D$62:$E$66</definedName>
+    <definedName name="取消隐藏">'角色&amp;NPC相关'!$G$145:$G$146</definedName>
+  </definedNames>
+  <calcPr calcId="122211" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="307">
   <si>
     <t>场景组成</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -117,10 +128,6 @@
   </si>
   <si>
     <t>近景</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>可通过两个手指放大/缩小屏幕达到拉近/拉远镜头的作用</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -351,10 +358,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>玩家可以通过点击场景或者点击NPC模型进行移动</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>当点击场景时，目标位置出现特效提示目的地位置</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -448,10 +451,6 @@
   </si>
   <si>
     <t>未发生移动时的动作</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>当目标与自身发生交互操作时（多为点击到自身模型），触发的交互动作</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -694,10 +693,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>当玩家角色处于该NPC的交互范围内时，点击该NPC可以与该NPC进行交互</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>当NPC配置了对话内容时，默认打开对话界面</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -919,6 +914,365 @@
   </si>
   <si>
     <t>补充任务追踪界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可通过两个手指放大/缩小屏幕达到拉近/拉远镜头的作用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>为啥没考虑放多大就是多大呢？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>咱们做同步还是异步？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个值为啥是范围值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多个图标如何显示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何触发跑步</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>交互动作被打断</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他界面直接关了或者不隐藏不行么，为啥选择隐藏的形式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>考虑角色移动方式，如果用点击移动的话，操作冲突</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺少场景音效相关内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否有点击后角色语音反馈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建议不要显示VIP等级，显示VIP其实不能起到刺激消费的作用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜色可以在斟酌一下，感觉用同色不好区分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其实图标可以显示玩家职业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>见前页，操作冲突否？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点一下么，如果点住了可以移动么</t>
+  </si>
+  <si>
+    <t>模型和物件是否有实际交互功能，如果有，是否有交互范围限制</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否有相应音效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否有反馈语音</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能图标没说</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伙伴名字已经可以看出品级了，还要品级图重复，建议留一种</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>交互范围具体说明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你这是啥破UI排版，丑死了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果有多个任务和多个功能，界面纵向扩展么</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他UI界面指的是之前已经弹出隐藏的还是UI上默认永远存在的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>经济系统中没有金币元宝，好像是金币金券</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进副本是在村落中一个固定的传送点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不是通过界面直接传送</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示位置固定，不会收起展开么</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对移动速度和转身速度没有具体概念，等实际效果体验</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前没职业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip是举例，方便后续扩展</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点一下，可以设置一个响应时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动即为跑步，只有这一种移动形态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可被打断</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>好建议</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>只是示意有哪些东西，具体等待美术同学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务和功能均为可控</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不隐藏不好看吧？ 对话中有其他的界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>等具体确定了货币单位后再补充</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要看一期制作的内容，如果可以排版，暂不需要收起展开</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定镜头会挑选一些比较适当的角度和距离，避免穿帮等问题出现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按住不响应移动的，应该不会冲突</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景音乐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景中循环播放场景音乐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求可配置多个音乐，多个音乐依次播放</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当一首音乐播放完毕后间隔3秒后播放下一首</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景音效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>音乐音效相关</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据场景中的不同物件可根据距离物件的距离播放3D音效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>距离越近，音效声音越大，远离后声音渐弱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已补充</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前应该是异步</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加随机性=，=</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当出现多个图标时，则图标并排显示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置后看实际效果然后补充</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>音效由目标触发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>若为NPC则由NPC触发音效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当动作或音效未播放完时，连续交互则不再次响应动作与音效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>当目标与自身发生交互操作时（多为点击到自身模型），触发的交互动作，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3E24FC"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同时播放交互音效或语音</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>称谓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于标识NPC的特殊功能或者所属</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如：杂货铺伙计or兔桑的八爪鱼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过称谓标识</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当玩家角色处于该NPC的交互范围内时（交互范围为2M），点击该NPC可以与该NPC进行交互</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个需要讨论，如果最终使用场景点的方式，则点击副本按钮是寻路到副本入口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ver 0.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yh</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回答qc反馈问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击松开后且点击时间小于1s则判定为移动操作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>玩家可以通过点击</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>场景或者点击NPC模型进行移动</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击松开后响应移动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>动作层级关系</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当播放某个层级的动作时，如果触发其他动作的播放需要判断优先级关系</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如优先级高于当前的动作，则打断当前动作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如优先级低于当前动作，则不打断当前动作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充动作层级关系</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消当开启NPC对话界面时其他界面隐藏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>动作优先级关系为 移动＞交互＞随机＞待机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>货币单位确定后完善显示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本入口打开方式确定后补充文档</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充设计备忘分页</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -926,7 +1280,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -996,13 +1350,62 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3E24FC"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1014,7 +1417,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -1022,8 +1425,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1050,11 +1454,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1124,13 +1547,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>239379</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>63318</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>478153</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>177655</xdr:rowOff>
@@ -1171,13 +1594,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>118857</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>113724</xdr:rowOff>
@@ -1189,8 +1612,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8324850" y="5962651"/>
-          <a:ext cx="2081007" cy="1066223"/>
+          <a:off x="12696825" y="5962651"/>
+          <a:ext cx="2052432" cy="1066223"/>
           <a:chOff x="7543800" y="7362826"/>
           <a:chExt cx="2081007" cy="1066223"/>
         </a:xfrm>
@@ -1228,7 +1651,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:endParaRPr lang="zh-Hans" altLang="en-US" sz="1100"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1265,7 +1688,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:endParaRPr lang="zh-Hans" altLang="en-US" sz="1100"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1328,7 +1751,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr"/>
-              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+              <a:endParaRPr lang="zh-Hans" altLang="en-US" sz="1100"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -1375,7 +1798,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr"/>
-              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+              <a:endParaRPr lang="zh-Hans" altLang="en-US" sz="1100"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -1470,7 +1893,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr"/>
-              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+              <a:endParaRPr lang="zh-Hans" altLang="en-US" sz="1100"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -1517,7 +1940,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr"/>
-              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+              <a:endParaRPr lang="zh-Hans" altLang="en-US" sz="1100"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -1581,7 +2004,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr"/>
-              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+              <a:endParaRPr lang="zh-Hans" altLang="en-US" sz="1100"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -1628,7 +2051,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr"/>
-              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+              <a:endParaRPr lang="zh-Hans" altLang="en-US" sz="1100"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -1638,13 +2061,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>239379</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>4040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>156219</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>177655</xdr:rowOff>
@@ -1685,13 +2108,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>239379</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>7773</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>595887</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>177655</xdr:rowOff>
@@ -1737,9 +2160,9 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>56665</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="885825" cy="2111199"/>
@@ -1776,15 +2199,15 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>247651</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1831,7 +2254,7 @@
         <a:p>
           <a:pPr marL="0" indent="0" algn="ctr"/>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -1848,15 +2271,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>238126</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1903,7 +2326,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1100">
               <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
               <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             </a:rPr>
@@ -1916,13 +2339,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>238126</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
@@ -1971,7 +2394,7 @@
         <a:p>
           <a:pPr marL="0" indent="0" algn="ctr"/>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -1988,9 +2411,9 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>190015</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="885825" cy="2111199"/>
@@ -2027,15 +2450,15 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>28574</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2082,7 +2505,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1100" dirty="0">
               <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
               <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             </a:rPr>
@@ -2095,15 +2518,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>133349</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2150,7 +2573,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1100">
               <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
               <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             </a:rPr>
@@ -2163,15 +2586,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>198045</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2181,8 +2604,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2095500" y="16249650"/>
-          <a:ext cx="828675" cy="533400"/>
+          <a:off x="5668224" y="17003540"/>
+          <a:ext cx="821885" cy="235956"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2222,8 +2645,12 @@
               <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
               <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             </a:rPr>
-            <a:t>任务图标</a:t>
+            <a:t>称谓</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-Hans" altLang="en-US" sz="1100">
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2231,15 +2658,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>761999</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2280,14 +2707,14 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="5400">
+            <a:rPr lang="en-US" altLang="zh-Hans" sz="5400">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>NPC</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="5400">
+          <a:endParaRPr lang="zh-Hans" altLang="en-US" sz="5400">
             <a:solidFill>
               <a:srgbClr val="FF0000"/>
             </a:solidFill>
@@ -2299,15 +2726,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>666751</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2356,7 +2783,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          <a:endParaRPr lang="zh-Hans" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2364,15 +2791,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>171451</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2421,7 +2848,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          <a:endParaRPr lang="zh-Hans" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2429,15 +2856,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>180976</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>66674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>47626</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>209549</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2447,8 +2874,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7724776" y="23117174"/>
-          <a:ext cx="552450" cy="561975"/>
+          <a:off x="11243179" y="24548753"/>
+          <a:ext cx="545660" cy="557826"/>
           <a:chOff x="2095500" y="5314950"/>
           <a:chExt cx="552450" cy="561975"/>
         </a:xfrm>
@@ -2496,7 +2923,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="l"/>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:endParaRPr lang="zh-Hans" altLang="en-US" sz="1100"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -2534,9 +2961,9 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="972702" cy="334451"/>
@@ -2576,21 +3003,21 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1100">
               <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
               <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
             </a:rPr>
             <a:t>兔桑你这</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:rPr lang="en-US" altLang="zh-Hans" sz="1100">
               <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
               <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
             </a:rPr>
             <a:t>2</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1100">
               <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
               <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
             </a:rPr>
@@ -2603,9 +3030,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1736373" cy="576568"/>
@@ -2645,20 +3072,20 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1100" dirty="0">
               <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
               <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
             </a:rPr>
             <a:t>你要知道，其实孔老师不</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="zh-Hans" sz="1100" dirty="0">
             <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
             <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1100" dirty="0">
               <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
               <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
             </a:rPr>
@@ -2671,15 +3098,15 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>236384</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>58226</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2689,8 +3116,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6486525" y="24450675"/>
-          <a:ext cx="607859" cy="334451"/>
+          <a:off x="10018508" y="25869806"/>
+          <a:ext cx="601069" cy="330301"/>
           <a:chOff x="7000875" y="24355425"/>
           <a:chExt cx="607859" cy="334451"/>
         </a:xfrm>
@@ -2741,7 +3168,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="l"/>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:endParaRPr lang="zh-Hans" altLang="en-US" sz="1100"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -2781,7 +3208,7 @@
           <a:lstStyle/>
           <a:p>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+              <a:rPr lang="zh-Hans" altLang="en-US" sz="1100" b="1">
                 <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
                 <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
               </a:rPr>
@@ -2795,15 +3222,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>127885</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>124901</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2813,8 +3240,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6496050" y="24098250"/>
-          <a:ext cx="1861435" cy="334451"/>
+          <a:off x="10028033" y="25519455"/>
+          <a:ext cx="1841065" cy="332377"/>
           <a:chOff x="7010402" y="24345900"/>
           <a:chExt cx="1436542" cy="334451"/>
         </a:xfrm>
@@ -2865,7 +3292,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="l"/>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:endParaRPr lang="zh-Hans" altLang="en-US" sz="1100"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -2905,21 +3332,21 @@
           <a:lstStyle/>
           <a:p>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+              <a:rPr lang="zh-Hans" altLang="en-US" sz="1100" b="1">
                 <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
                 <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
               </a:rPr>
               <a:t>主线</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:rPr lang="en-US" altLang="zh-Hans" sz="1100" b="1">
                 <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
                 <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
               </a:rPr>
               <a:t>*3fat</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+              <a:rPr lang="zh-Hans" altLang="en-US" sz="1100" b="1">
                 <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
                 <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
               </a:rPr>
@@ -2933,15 +3360,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>152404</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>9519</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>524164</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>76194</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2951,8 +3378,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6324604" y="23060019"/>
-          <a:ext cx="371760" cy="276225"/>
+          <a:off x="9856587" y="24491598"/>
+          <a:ext cx="371760" cy="274150"/>
           <a:chOff x="6966137" y="24344199"/>
           <a:chExt cx="451946" cy="325551"/>
         </a:xfrm>
@@ -3003,7 +3430,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="l"/>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:endParaRPr lang="zh-Hans" altLang="en-US" sz="1100"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -3043,7 +3470,7 @@
           <a:lstStyle/>
           <a:p>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="1">
+              <a:rPr lang="zh-Hans" altLang="en-US" sz="900" b="1">
                 <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
                 <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
               </a:rPr>
@@ -3057,15 +3484,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>159</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>161</xdr:row>
+      <xdr:row>169</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3114,7 +3541,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          <a:endParaRPr lang="zh-Hans" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3122,15 +3549,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>157</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>104774</xdr:colOff>
-      <xdr:row>161</xdr:row>
+      <xdr:row>169</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3179,7 +3606,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          <a:endParaRPr lang="zh-Hans" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3187,9 +3614,9 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>619124</xdr:colOff>
-      <xdr:row>158</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1736373" cy="576568"/>
@@ -3229,20 +3656,20 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1100">
               <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
               <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
             </a:rPr>
             <a:t>你要知道，其实孔老师不</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="zh-Hans" sz="1100">
             <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
             <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1100">
               <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
               <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
             </a:rPr>
@@ -3255,15 +3682,15 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>156</xdr:row>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>159</xdr:row>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -3273,8 +3700,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7772400" y="32813625"/>
-          <a:ext cx="552450" cy="561975"/>
+          <a:off x="11290803" y="34574147"/>
+          <a:ext cx="545660" cy="555751"/>
           <a:chOff x="2095500" y="5314950"/>
           <a:chExt cx="552450" cy="561975"/>
         </a:xfrm>
@@ -3322,7 +3749,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="l"/>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:endParaRPr lang="zh-Hans" altLang="en-US" sz="1100"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -3360,15 +3787,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>162</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>133349</xdr:colOff>
-      <xdr:row>172</xdr:row>
+      <xdr:row>180</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3417,7 +3844,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          <a:endParaRPr lang="zh-Hans" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3425,15 +3852,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>177</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>152399</xdr:colOff>
-      <xdr:row>172</xdr:row>
+      <xdr:row>180</xdr:row>
       <xdr:rowOff>152401</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3482,7 +3909,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          <a:endParaRPr lang="zh-Hans" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3490,15 +3917,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>168</xdr:row>
+      <xdr:row>176</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>178</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -3508,8 +3935,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3457575" y="35252025"/>
-          <a:ext cx="552450" cy="561975"/>
+          <a:off x="7016719" y="36987650"/>
+          <a:ext cx="552450" cy="557825"/>
           <a:chOff x="2095500" y="5314950"/>
           <a:chExt cx="552450" cy="561975"/>
         </a:xfrm>
@@ -3557,7 +3984,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="l"/>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:endParaRPr lang="zh-Hans" altLang="en-US" sz="1100"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -3595,9 +4022,9 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>685799</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>177</xdr:row>
       <xdr:rowOff>152401</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2300630" cy="334451"/>
@@ -3637,7 +4064,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1100">
               <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
               <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
             </a:rPr>
@@ -3650,9 +4077,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>156</xdr:row>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="972702" cy="334451"/>
@@ -3692,21 +4119,21 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1100">
               <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
               <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
             </a:rPr>
             <a:t>兔桑你这</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:rPr lang="en-US" altLang="zh-Hans" sz="1100">
               <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
               <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
             </a:rPr>
             <a:t>2</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1100">
               <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
               <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
             </a:rPr>
@@ -3719,9 +4146,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>168</xdr:row>
+      <xdr:row>176</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="972702" cy="334451"/>
@@ -3761,21 +4188,21 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1100">
               <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
               <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
             </a:rPr>
             <a:t>兔桑你这</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:rPr lang="en-US" altLang="zh-Hans" sz="1100">
               <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
               <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
             </a:rPr>
             <a:t>3</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1100">
               <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
               <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
             </a:rPr>
@@ -3788,9 +4215,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>159</xdr:row>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="607859" cy="275717"/>
@@ -3830,10 +4257,10 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1"/>
+            <a:rPr lang="en-US" altLang="zh-Hans" sz="1100" b="1"/>
             <a:t>》》》</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1"/>
+          <a:endParaRPr lang="zh-Hans" altLang="en-US" sz="1100" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3841,9 +4268,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>171</xdr:row>
+      <xdr:row>179</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="607859" cy="275717"/>
@@ -3883,15 +4310,83 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1"/>
+            <a:rPr lang="en-US" altLang="zh-Hans" sz="1100" b="1"/>
             <a:t>》》》</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1"/>
+          <a:endParaRPr lang="zh-Hans" altLang="en-US" sz="1100" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>30178</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>161831</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>173053</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>190312</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="TextBox 47"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5660302" y="16759851"/>
+          <a:ext cx="821885" cy="235956"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1100">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>任务图标</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3899,13 +4394,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
@@ -3956,7 +4451,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          <a:endParaRPr lang="zh-Hans" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3964,13 +4459,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>590551</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
@@ -3982,7 +4477,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3495675" y="1638299"/>
+          <a:off x="5467350" y="1638299"/>
           <a:ext cx="523876" cy="1123951"/>
           <a:chOff x="7867650" y="1905000"/>
           <a:chExt cx="285750" cy="714375"/>
@@ -4030,7 +4525,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="l"/>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:endParaRPr lang="zh-Hans" altLang="en-US" sz="1100"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -4070,7 +4565,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="l"/>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:endParaRPr lang="zh-Hans" altLang="en-US" sz="1100"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -4079,13 +4574,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>657224</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
@@ -4132,7 +4627,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1400" b="1">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -4148,13 +4643,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>476249</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
@@ -4203,7 +4698,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1100"/>
             <a:t>聊天界面</a:t>
           </a:r>
         </a:p>
@@ -4213,13 +4708,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>19051</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>28574</xdr:rowOff>
@@ -4266,10 +4761,10 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1100"/>
             <a:t>基础功能</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+          <a:endParaRPr lang="en-US" altLang="zh-Hans" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4277,13 +4772,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>656100</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
@@ -4330,7 +4825,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1100"/>
             <a:t>基础功能</a:t>
           </a:r>
         </a:p>
@@ -4340,13 +4835,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
@@ -4393,7 +4888,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1100"/>
             <a:t>副本按钮</a:t>
           </a:r>
         </a:p>
@@ -4403,13 +4898,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>371474</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
@@ -4455,7 +4950,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+          <a:endParaRPr lang="zh-Hans" altLang="en-US" sz="1400" b="1">
             <a:solidFill>
               <a:srgbClr val="FF0000"/>
             </a:solidFill>
@@ -4469,13 +4964,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -4487,7 +4982,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2095500" y="5314950"/>
+          <a:off x="4086225" y="5314950"/>
           <a:ext cx="552450" cy="561975"/>
           <a:chOff x="2095500" y="5314950"/>
           <a:chExt cx="552450" cy="561975"/>
@@ -4536,7 +5031,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="l"/>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:endParaRPr lang="zh-Hans" altLang="en-US" sz="1100"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -4574,13 +5069,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
@@ -4592,8 +5087,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1895475" y="5143500"/>
-          <a:ext cx="371475" cy="361950"/>
+          <a:off x="3895725" y="5143500"/>
+          <a:ext cx="361950" cy="361950"/>
           <a:chOff x="1895475" y="4933950"/>
           <a:chExt cx="371475" cy="361950"/>
         </a:xfrm>
@@ -4640,7 +5135,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="l"/>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:endParaRPr lang="zh-Hans" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -4684,10 +5179,10 @@
           <a:lstStyle/>
           <a:p>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:rPr lang="en-US" altLang="zh-Hans" sz="1100"/>
               <a:t>25</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:endParaRPr lang="zh-Hans" altLang="en-US" sz="1100"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -4696,7 +5191,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
@@ -4738,7 +5233,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1100">
               <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
               <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             </a:rPr>
@@ -4751,13 +5246,13 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>35960</xdr:rowOff>
@@ -4769,8 +5264,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2838450" y="5638800"/>
-          <a:ext cx="2238375" cy="264560"/>
+          <a:off x="4819650" y="5638800"/>
+          <a:ext cx="2209800" cy="264560"/>
           <a:chOff x="2514600" y="5962650"/>
           <a:chExt cx="2238375" cy="264560"/>
         </a:xfrm>
@@ -4827,14 +5322,14 @@
             <a:p>
               <a:pPr algn="l"/>
               <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                <a:rPr lang="en-US" altLang="zh-Hans" sz="1100">
                   <a:solidFill>
                     <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                 </a:rPr>
                 <a:t>30/120</a:t>
               </a:r>
-              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:endParaRPr lang="zh-Hans" altLang="en-US" sz="1100">
                 <a:solidFill>
                   <a:srgbClr val="FF0000"/>
                 </a:solidFill>
@@ -4877,7 +5372,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l"/>
-              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:endParaRPr lang="zh-Hans" altLang="en-US" sz="1100">
                 <a:solidFill>
                   <a:srgbClr val="FF0000"/>
                 </a:solidFill>
@@ -4922,10 +5417,10 @@
           <a:lstStyle/>
           <a:p>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:rPr lang="en-US" altLang="zh-Hans" sz="1100"/>
               <a:t>30/120</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:endParaRPr lang="zh-Hans" altLang="en-US" sz="1100"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -4934,7 +5429,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>675625</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>3773</xdr:rowOff>
@@ -4963,7 +5458,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1" cap="none" spc="50">
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1400" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
                 <a:solidFill>
                   <a:schemeClr val="accent6">
@@ -4990,7 +5485,7 @@
             <a:t>总战力</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1" cap="none" spc="50" baseline="0">
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1400" b="1" cap="none" spc="50" baseline="0">
               <a:ln w="12700" cmpd="sng">
                 <a:solidFill>
                   <a:schemeClr val="accent6">
@@ -5017,7 +5512,7 @@
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1" cap="none" spc="50" baseline="0">
+            <a:rPr lang="en-US" altLang="zh-Hans" sz="1400" b="1" cap="none" spc="50" baseline="0">
               <a:ln w="12700" cmpd="sng">
                 <a:solidFill>
                   <a:schemeClr val="accent6">
@@ -5043,7 +5538,7 @@
             </a:rPr>
             <a:t>9999999</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1" cap="none" spc="50">
+          <a:endParaRPr lang="zh-Hans" altLang="en-US" sz="1400" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
               <a:solidFill>
                 <a:schemeClr val="accent6">
@@ -5074,7 +5569,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
@@ -5116,20 +5611,20 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="900">
               <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
               <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             </a:rPr>
             <a:t>元宝：</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+            <a:rPr lang="en-US" altLang="zh-Hans" sz="900">
               <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
               <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             </a:rPr>
             <a:t>9999</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+          <a:endParaRPr lang="zh-Hans" altLang="en-US" sz="900">
             <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
           </a:endParaRPr>
@@ -5140,7 +5635,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
@@ -5182,20 +5677,20 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="900">
               <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
               <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             </a:rPr>
             <a:t>金币：</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+            <a:rPr lang="en-US" altLang="zh-Hans" sz="900">
               <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
               <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             </a:rPr>
             <a:t>9999</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+          <a:endParaRPr lang="zh-Hans" altLang="en-US" sz="900">
             <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
           </a:endParaRPr>
@@ -5206,13 +5701,13 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
@@ -5259,7 +5754,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1100"/>
             <a:t>任务追踪</a:t>
           </a:r>
         </a:p>
@@ -5271,9 +5766,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="办公室">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5311,7 +5806,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="办公室">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -5383,7 +5878,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="办公室">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5557,25 +6052,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="9" style="2"/>
+    <col min="1" max="2" width="8.875" style="2"/>
     <col min="3" max="3" width="12.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="2"/>
+    <col min="4" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
@@ -5600,10 +6095,10 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -5628,10 +6123,10 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -5656,7 +6151,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="8"/>
@@ -5682,28 +6177,28 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="E9" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="F9" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="H9" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
@@ -5723,23 +6218,23 @@
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C11" s="9">
         <v>42087</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
@@ -5753,7 +6248,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
@@ -5761,44 +6256,134 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="10"/>
+      <c r="B13" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C13" s="9">
+        <v>42097</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>292</v>
+      </c>
       <c r="F13" s="7"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="G13" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>293</v>
+      </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="11"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>160</v>
-      </c>
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="10"/>
       <c r="F14" s="7"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="6" t="s">
-        <v>161</v>
+      <c r="H14" s="20" t="s">
+        <v>296</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="11"/>
     </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="11"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="11"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="11"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="11"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="11"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H14" location="点击松开后且点击时间小于1s则判定为移动操作" display="点击松开后响应移动"/>
+    <hyperlink ref="H15" location="动作层级关系" display="补充动作层级关系"/>
+    <hyperlink ref="H16" location="取消隐藏" display="取消当开启NPC对话界面时其他界面隐藏"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5807,13 +6392,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -5824,349 +6409,429 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="26.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.375" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C3" s="1" t="s">
+    <row r="3" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D4" s="1" t="s">
+    <row r="4" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C5" s="1" t="s">
+    <row r="5" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="E5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D6" s="1" t="s">
+    <row r="6" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C7" s="1" t="s">
+    <row r="7" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="E7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D8" s="1" t="s">
+    <row r="8" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F8" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E9" s="1" t="s">
+    <row r="9" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="G9" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E10" s="1" t="s">
+    <row r="10" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="G10" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E11" s="1" t="s">
+    <row r="11" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="G11" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C13" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="1" t="s">
+    <row r="14" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="1" t="s">
+    <row r="15" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C18" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="1" t="s">
+    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D19" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C20" s="1" t="s">
+    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="E20" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C21" s="1" t="s">
+    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="E21" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="E23" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="F24" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="F25" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C23" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D24" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D25" s="1" t="s">
+    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="E27" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="F28" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="F29" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="F30" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="G31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C27" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D28" s="1" t="s">
+    <row r="32" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="G32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B34" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B35" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D29" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D30" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E31" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E32" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="E33" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F33" s="1" t="s">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H36" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H37" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H38" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F39" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G40" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H41" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H42" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H43" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B46" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F47" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D34" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="E35" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="F36" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="F37" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="F38" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D39" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="E40" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="F41" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="F42" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="F43" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C45" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D46" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D47" s="1" t="s">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F48" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D48" s="1" t="s">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F49" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D49" s="1" t="s">
-        <v>43</v>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="14" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B52" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D53" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E54" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E55" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E56" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D58" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E59" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E60" s="1" t="s">
+        <v>273</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M192"/>
+  <dimension ref="A1:O200"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView topLeftCell="A43" zoomScale="101" workbookViewId="0">
+      <selection activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="26.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D2" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E3" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C3" s="4" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E4" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C4" s="1" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="15" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E7" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C5" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C7" s="4" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E8" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C8" s="1" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F9" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D9" s="1" t="s">
+      <c r="G9" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D10" s="1" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D11" s="1" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E12" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E13" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="1" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E16" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C16" s="4" t="s">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F17" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="17" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -6174,13 +6839,13 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
-    </row>
-    <row r="18" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D18" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F18" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -6188,900 +6853,1052 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
-    </row>
-    <row r="19" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D19" s="2" t="s">
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
-    </row>
-    <row r="20" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>227</v>
+      </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
-      <c r="I20" s="2" t="s">
-        <v>65</v>
-      </c>
+      <c r="I20" s="2"/>
       <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
+      <c r="K20" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
-    </row>
-    <row r="21" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>274</v>
+      </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
+      <c r="K21" s="17" t="s">
+        <v>277</v>
+      </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
-    </row>
-    <row r="22" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
-      <c r="I22" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="J22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
-    </row>
-    <row r="23" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="2" t="s">
-        <v>77</v>
-      </c>
+      <c r="I23" s="2"/>
       <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
+      <c r="K23" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
-    </row>
-    <row r="24" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
-      <c r="I24" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="I24" s="2"/>
       <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
+      <c r="K24" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
-    </row>
-    <row r="25" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
+      <c r="K25" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
-    </row>
-    <row r="26" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="2" t="s">
-        <v>68</v>
-      </c>
+      <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
-    </row>
-    <row r="27" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
-      <c r="I27" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
-    </row>
-    <row r="28" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="2" t="s">
-        <v>70</v>
-      </c>
+      <c r="I28" s="2"/>
       <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
+      <c r="K28" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
-    </row>
-    <row r="29" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="I29" s="2"/>
       <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
+      <c r="K29" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
-    </row>
-    <row r="30" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
-      <c r="J30" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="J30" s="2"/>
       <c r="K30" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
-    </row>
-    <row r="31" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
-      <c r="J31" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-    </row>
-    <row r="32" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="14" t="s">
+        <v>235</v>
+      </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33" s="15" t="s">
+        <v>278</v>
+      </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B37" s="1" t="s">
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D38" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E39" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A40" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A41" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C38" s="1" t="s">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G42" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="D39" s="1" t="s">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F43" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A44" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F45" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="E40" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="D41" s="1" t="s">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D48" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="E42" s="1" t="s">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E49" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B51" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B52" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="D43" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B46" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C47" s="4" t="s">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E54" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F55" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="D48" s="1" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="14"/>
+      <c r="D57" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D49" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D50" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C52" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D53" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B55" s="1" t="s">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="E59" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C56" s="1" t="s">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B60" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C57" s="1" t="s">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B61" s="15" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D62" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="E62" s="15"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D63" s="15"/>
+      <c r="E63" s="15" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D64" s="15"/>
+      <c r="E64" s="15" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="65" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D65" s="15"/>
+      <c r="E65" s="15" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="66" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D66" s="15"/>
+      <c r="E66" s="15" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="68" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C68" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C58" s="1" t="s">
+    <row r="69" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D69" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
+    <row r="70" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="E70" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B62" s="1" t="s">
+    <row r="72" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D72" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C63" s="1" t="s">
+    <row r="73" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="E73" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="74" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="E74" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B65" s="1" t="s">
+    <row r="76" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="E76" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="77" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="E77" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C66" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C67" s="1" t="s">
+    <row r="78" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F78" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G78" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C69" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C70" s="1" t="s">
+    <row r="79" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F79" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G79" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="D71" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E71" s="1" t="s">
+    <row r="80" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F80" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G81" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="D72" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E72" s="1" t="s">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G82" s="15" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E84" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="D73" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E74" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C76" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C77" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
-      <c r="I77" s="2"/>
-      <c r="J77" s="2"/>
-      <c r="K77" s="2"/>
-      <c r="L77" s="2"/>
-    </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C78" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
-      <c r="I78" s="2"/>
-      <c r="J78" s="2"/>
-      <c r="K78" s="2"/>
-      <c r="L78" s="2"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
-      <c r="I79" s="2"/>
-      <c r="J79" s="2"/>
-      <c r="K79" s="2"/>
-      <c r="L79" s="2"/>
-    </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="H80" s="2"/>
-      <c r="I80" s="2"/>
-      <c r="J80" s="2"/>
-      <c r="K80" s="2"/>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="I81" s="2"/>
-      <c r="J81" s="2"/>
-      <c r="K81" s="2"/>
-      <c r="L81" s="2"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="H82" s="2"/>
-      <c r="I82" s="2"/>
-      <c r="J82" s="2"/>
-      <c r="K82" s="2"/>
-      <c r="L82" s="2"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="I83" s="2"/>
-      <c r="J83" s="2"/>
-      <c r="K83" s="2"/>
-      <c r="L83" s="2"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="H84" s="2"/>
-      <c r="I84" s="2"/>
-      <c r="J84" s="2"/>
-      <c r="K84" s="2"/>
-      <c r="L84" s="2"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E85" s="2" t="s">
+        <v>115</v>
+      </c>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
-      <c r="H85" s="2" t="s">
-        <v>114</v>
-      </c>
+      <c r="H85" s="2"/>
       <c r="I85" s="2"/>
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E86" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
-      <c r="I86" s="2" t="s">
-        <v>115</v>
-      </c>
+      <c r="I86" s="2"/>
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
-      <c r="H87" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="I87" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
-      <c r="I88" s="2"/>
+      <c r="I88" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
+      <c r="M88" s="2"/>
+      <c r="N88" s="2"/>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A89" s="14" t="s">
+        <v>242</v>
+      </c>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
-      <c r="J89" s="2"/>
+      <c r="J89" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B90" s="15" t="s">
+        <v>286</v>
+      </c>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
-      <c r="I90" s="2"/>
-      <c r="J90" s="2"/>
-      <c r="K90" s="2"/>
-      <c r="L90" s="2"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
+      <c r="I90" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="J90" s="16"/>
+      <c r="K90" s="16"/>
+      <c r="L90" s="16"/>
+      <c r="M90" s="16"/>
+      <c r="N90" s="16"/>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
-      <c r="I91" s="2"/>
-      <c r="J91" s="2"/>
-      <c r="K91" s="2"/>
-      <c r="L91" s="2"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
+      <c r="I91" s="16"/>
+      <c r="J91" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="K91" s="16"/>
+      <c r="L91" s="16"/>
+      <c r="M91" s="16"/>
+      <c r="N91" s="16"/>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
-      <c r="I92" s="2"/>
-      <c r="J92" s="2"/>
-      <c r="K92" s="2"/>
-      <c r="L92" s="2"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
+      <c r="I92" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
-      <c r="I93" s="2"/>
-      <c r="J93" s="2"/>
-      <c r="K93" s="2"/>
-      <c r="L93" s="2"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
+      <c r="J93" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
-      <c r="I94" s="2"/>
-      <c r="J94" s="2"/>
-      <c r="K94" s="2"/>
-      <c r="L94" s="2"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C96" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C97" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C98" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B101" s="1" t="s">
+      <c r="J94" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A95" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B96" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J96" s="2"/>
+      <c r="K96" s="2"/>
+      <c r="L96" s="2"/>
+      <c r="M96" s="2"/>
+      <c r="N96" s="2"/>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
+      <c r="J97" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K97" s="2"/>
+      <c r="L97" s="2"/>
+      <c r="M97" s="2"/>
+      <c r="N97" s="2"/>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
+      <c r="J98" s="2"/>
+      <c r="K98" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="L98" s="2"/>
+      <c r="M98" s="2"/>
+      <c r="N98" s="2"/>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
+      <c r="I99" s="2"/>
+      <c r="J99" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K99" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L99" s="2"/>
+      <c r="M99" s="2"/>
+      <c r="N99" s="2"/>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
+      <c r="J100" s="2"/>
+      <c r="K100" s="2"/>
+      <c r="L100" s="2"/>
+      <c r="M100" s="2"/>
+      <c r="N100" s="2"/>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="2"/>
+      <c r="I101" s="2"/>
+      <c r="J101" s="2"/>
+      <c r="K101" s="2"/>
+      <c r="L101" s="2"/>
+      <c r="M101" s="2"/>
+      <c r="N101" s="2"/>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
+      <c r="H102" s="2"/>
+      <c r="I102" s="2"/>
+      <c r="J102" s="2"/>
+      <c r="K102" s="2"/>
+      <c r="L102" s="2"/>
+      <c r="M102" s="2"/>
+      <c r="N102" s="2"/>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E104" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E105" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E106" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D109" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E110" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A111" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B112" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="E112" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C102" s="4" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C103" s="1" t="s">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F113" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G114" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G115" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G117" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C104" s="1" t="s">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H118" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A119" s="14" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B120" s="15" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H130" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I131" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H132" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I133" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H134" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I135" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H136" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A137" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B138" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H139" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I140" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I141" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H142" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I143" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G145" s="19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A146" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="B146" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="G146" s="19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B147" s="15" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F148" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G149" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D105" s="4" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E106" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E107" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E109" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="F110" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="122" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F122" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="123" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="G123" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="124" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F124" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="125" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="G125" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="126" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F126" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="127" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="G127" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="128" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F128" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="129" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="G129" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="130" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="G130" s="1" t="s">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F151" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G152" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="131" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="F131" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="132" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="G132" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="133" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="G133" s="1" t="s">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G153" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="134" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="F134" s="1" t="s">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G154" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="135" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="G135" s="1" t="s">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G155" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="137" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="E137" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="138" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="E138" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="140" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D140" s="4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="141" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="E141" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="143" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D143" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="144" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="E144" s="1" t="s">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G156" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G158" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="145" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E145" s="1" t="s">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H159" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="146" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E146" s="1" t="s">
+    <row r="171" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H171" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="147" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E147" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="148" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E148" s="1" t="s">
+    <row r="183" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H183" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="184" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I184" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="185" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H185" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="186" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I186" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="150" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E150" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="151" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="F151" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="163" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F163" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="175" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F175" s="1" t="s">
+    <row r="187" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H187" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="176" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="G176" s="1" t="s">
+    <row r="188" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I188" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="177" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="F177" s="1" t="s">
+    <row r="189" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H189" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="178" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="G178" s="1" t="s">
+    <row r="190" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I190" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="179" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="F179" s="1" t="s">
+    <row r="191" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H191" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="192" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I192" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="193" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="I193" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="194" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="I194" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="195" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="J195" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="196" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="J196" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="198" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G198" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="180" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="G180" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="181" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="F181" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="182" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="G182" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="183" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="F183" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="184" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="G184" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="185" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="G185" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="186" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="G186" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="187" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="H187" s="1" t="s">
+    <row r="199" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G199" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="188" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="H188" s="1" t="s">
+    <row r="200" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G200" s="1" t="s">
         <v>210</v>
-      </c>
-    </row>
-    <row r="190" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E190" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="191" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E191" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="192" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E192" s="1" t="s">
-        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -7094,140 +7911,162 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="26.5" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C21" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D22" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C22" s="1" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D31" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C33" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D34" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D35" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C23" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C24" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C31" s="1" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D36" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C38" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B41" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D42" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C44" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C34" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C35" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C36" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B38" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C39" s="1" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D45" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B47" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E48" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C40" s="1" t="s">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D49" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D51" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="53" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C53" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="54" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D54" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C41" s="1" t="s">
+    <row r="55" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D55" s="1" t="s">
         <v>221</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C42" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B44" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C45" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C46" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D47" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D48" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C49" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C51" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B53" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C54" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C55" s="1" t="s">
-        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -7236,4 +8075,39 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="21">
+        <v>42097</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/gd/村落&家园系统/村落&家园系统.xlsx
+++ b/gd/村落&家园系统/村落&家园系统.xlsx
@@ -18,8 +18,9 @@
     <definedName name="点击松开后且点击时间小于1s则判定为移动操作">'角色&amp;NPC相关'!$F$40</definedName>
     <definedName name="动作层级关系">'角色&amp;NPC相关'!$D$62:$E$66</definedName>
     <definedName name="取消隐藏">'角色&amp;NPC相关'!$G$145:$G$146</definedName>
+    <definedName name="任务按钮">'角色&amp;NPC相关'!$H$136:$I$137</definedName>
   </definedNames>
-  <calcPr calcId="122211" concurrentCalc="0"/>
+  <calcPr calcId="122211"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="310">
   <si>
     <t>场景组成</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -741,19 +742,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>当该NPC承载任务时，显示对应任务按钮以及任务名称，同时标明任务状态（接取，完成，进行中）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>系统功能按钮</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>当该NPC承载系统功能时，显示对应系统功能按钮以及功能名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击可以打开对应任务的（接取、完成、进行中）界面</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1275,12 +1268,32 @@
     <t>补充设计备忘分页</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>当该NPC承载任务时，显示对应任务按钮以及任务名称，同时标明任务状态（接取，交付）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善任务按钮状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yh</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ver 0.6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1387,6 +1400,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1427,7 +1447,7 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1472,6 +1492,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -6052,7 +6073,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
@@ -6070,7 +6091,7 @@
         <v>138</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
@@ -6248,7 +6269,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
@@ -6257,23 +6278,23 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C13" s="9">
         <v>42097</v>
       </c>
       <c r="D13" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="E13" s="18" t="s">
         <v>290</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>292</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="H13" s="6" t="s">
         <v>291</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>293</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
@@ -6288,7 +6309,7 @@
       <c r="F14" s="7"/>
       <c r="G14" s="6"/>
       <c r="H14" s="20" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
@@ -6303,7 +6324,7 @@
       <c r="F15" s="7"/>
       <c r="G15" s="6"/>
       <c r="H15" s="20" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
@@ -6318,7 +6339,7 @@
       <c r="F16" s="7"/>
       <c r="G16" s="6"/>
       <c r="H16" s="20" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
@@ -6333,7 +6354,7 @@
       <c r="F17" s="7"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
@@ -6341,41 +6362,90 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="7"/>
+      <c r="B18" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C18" s="9">
+        <v>42108</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>308</v>
+      </c>
       <c r="E18" s="10"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
+      <c r="G18" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>306</v>
+      </c>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
       <c r="K18" s="11"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>157</v>
-      </c>
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="10"/>
       <c r="F19" s="7"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="6" t="s">
-        <v>158</v>
-      </c>
+      <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="11"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="11"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="11"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -6383,6 +6453,7 @@
     <hyperlink ref="H14" location="点击松开后且点击时间小于1s则判定为移动操作" display="点击松开后响应移动"/>
     <hyperlink ref="H15" location="动作层级关系" display="补充动作层级关系"/>
     <hyperlink ref="H16" location="取消隐藏" display="取消当开启NPC对话界面时其他界面隐藏"/>
+    <hyperlink ref="H18" location="任务按钮" display="完善任务按钮状态"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6534,7 +6605,7 @@
     </row>
     <row r="28" spans="3:8" x14ac:dyDescent="0.3">
       <c r="F28" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29" spans="3:8" x14ac:dyDescent="0.3">
@@ -6573,7 +6644,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>33</v>
@@ -6581,7 +6652,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B35" s="15" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>25</v>
@@ -6629,7 +6700,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="14" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>31</v>
@@ -6637,7 +6708,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B46" s="15" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>32</v>
@@ -6660,50 +6731,50 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="14" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B52" s="15" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D53" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E54" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E55" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E56" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D58" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E59" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E60" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -6718,8 +6789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O200"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="101" workbookViewId="0">
-      <selection activeCell="E81" sqref="E81"/>
+    <sheetView topLeftCell="A118" zoomScale="101" workbookViewId="0">
+      <selection activeCell="H141" sqref="H141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6751,7 +6822,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" s="12" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>162</v>
@@ -6759,7 +6830,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6" s="15" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -6798,7 +6869,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>56</v>
@@ -6806,7 +6877,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B13" s="15" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>57</v>
@@ -6814,7 +6885,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>52</v>
@@ -6874,10 +6945,10 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -6894,10 +6965,10 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -6905,7 +6976,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="17" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -7054,7 +7125,7 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -7073,7 +7144,7 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="15" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -7088,7 +7159,7 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -7100,7 +7171,7 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
@@ -7114,23 +7185,23 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E39" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>79</v>
@@ -7148,7 +7219,7 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>83</v>
@@ -7171,7 +7242,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="14" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>90</v>
@@ -7179,7 +7250,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B51" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>86</v>
@@ -7187,7 +7258,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B52" s="15" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>85</v>
@@ -7211,10 +7282,10 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>92</v>
@@ -7222,10 +7293,10 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>93</v>
@@ -7233,7 +7304,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B60" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>94</v>
@@ -7241,37 +7312,37 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B61" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D62" s="15" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E62" s="15"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D63" s="15"/>
       <c r="E63" s="15" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D64" s="15"/>
       <c r="E64" s="15" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="65" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D65" s="15"/>
       <c r="E65" s="15" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="66" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D66" s="15"/>
       <c r="E66" s="15" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="68" spans="3:7" x14ac:dyDescent="0.3">
@@ -7335,7 +7406,7 @@
         <v>52</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.3">
@@ -7345,7 +7416,7 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="G82" s="15" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.3">
@@ -7409,7 +7480,7 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" s="14" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
@@ -7426,7 +7497,7 @@
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B90" s="15" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
@@ -7461,7 +7532,7 @@
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
       <c r="I92" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.3">
@@ -7470,7 +7541,7 @@
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
       <c r="J93" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.3">
@@ -7479,12 +7550,12 @@
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
       <c r="J94" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
@@ -7493,7 +7564,7 @@
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B96" s="15" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
@@ -7610,20 +7681,20 @@
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E110" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B112" s="15" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>166</v>
@@ -7631,7 +7702,7 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F113" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
@@ -7656,12 +7727,12 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B120" s="15" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
@@ -7701,22 +7772,22 @@
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="I137" s="1" t="s">
-        <v>179</v>
+        <v>244</v>
+      </c>
+      <c r="I137" s="22" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B138" s="15" t="s">
-        <v>260</v>
-      </c>
-      <c r="I138" s="1" t="s">
-        <v>182</v>
+        <v>258</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="H139" s="1" t="s">
+      <c r="I139" s="1" t="s">
         <v>180</v>
       </c>
     </row>
@@ -7726,18 +7797,13 @@
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I141" s="1" t="s">
+      <c r="H141" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I142" s="1" t="s">
         <v>183</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="H142" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I143" s="1" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
@@ -7747,10 +7813,10 @@
     </row>
     <row r="146" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A146" s="14" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B146" s="13" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G146" s="19" t="s">
         <v>165</v>
@@ -7758,12 +7824,12 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B147" s="15" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F148" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
@@ -7773,132 +7839,132 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F151" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G152" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G153" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G154" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G155" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G156" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G158" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H159" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="171" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H171" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="183" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H183" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="184" spans="8:9" x14ac:dyDescent="0.3">
       <c r="I184" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="185" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H185" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="186" spans="8:9" x14ac:dyDescent="0.3">
       <c r="I186" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="187" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H187" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="188" spans="8:9" x14ac:dyDescent="0.3">
       <c r="I188" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="189" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H189" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="190" spans="8:9" x14ac:dyDescent="0.3">
       <c r="I190" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="191" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H191" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="192" spans="8:9" x14ac:dyDescent="0.3">
       <c r="I192" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="193" spans="7:10" x14ac:dyDescent="0.3">
       <c r="I193" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="194" spans="7:10" x14ac:dyDescent="0.3">
       <c r="I194" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="195" spans="7:10" x14ac:dyDescent="0.3">
       <c r="J195" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="196" spans="7:10" x14ac:dyDescent="0.3">
       <c r="J196" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="198" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G198" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="199" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G199" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="200" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G200" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -7940,7 +8006,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>121</v>
@@ -7948,7 +8014,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B24" s="15" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>122</v>
@@ -7986,7 +8052,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>132</v>
@@ -7994,18 +8060,18 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="14" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B41" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -8025,15 +8091,15 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="14" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B47" s="15" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>134</v>
@@ -8056,17 +8122,17 @@
     </row>
     <row r="53" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="54" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D54" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="55" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D55" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -8098,12 +8164,12 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
